--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE79AB1-B504-4F53-9472-CD5E63D4373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="10350" yWindow="180" windowWidth="15170" windowHeight="13700" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,23 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Wang</author>
     <author>ywu</author>
@@ -37,7 +49,7 @@
     <author>A Elgowainy</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="1" shapeId="0">
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="2" shapeId="0">
+    <comment ref="A43" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A63" authorId="3" shapeId="0">
+    <comment ref="A63" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="4" shapeId="0">
+    <comment ref="B65" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A66" authorId="0" shapeId="0">
+    <comment ref="A66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="4" shapeId="0">
+    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="3" shapeId="0">
+    <comment ref="D66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -284,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F66" authorId="3" shapeId="0">
+    <comment ref="F66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G66" authorId="3" shapeId="0">
+    <comment ref="G66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="3" shapeId="0">
+    <comment ref="I66" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="4" shapeId="0">
+    <comment ref="B67" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="3" shapeId="0">
+    <comment ref="D67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="3" shapeId="0">
+    <comment ref="F67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G67" authorId="3" shapeId="0">
+    <comment ref="G67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="3" shapeId="0">
+    <comment ref="I67" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000015000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="4" shapeId="0">
+    <comment ref="B68" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000016000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="3" shapeId="0">
+    <comment ref="D68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000017000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="3" shapeId="0">
+    <comment ref="F68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000018000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G68" authorId="3" shapeId="0">
+    <comment ref="G68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000019000000}">
       <text>
         <r>
           <rPr>
@@ -482,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="3" shapeId="0">
+    <comment ref="I68" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -495,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="4" shapeId="0">
+    <comment ref="B69" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="3" shapeId="0">
+    <comment ref="D69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="3" shapeId="0">
+    <comment ref="F69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -545,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G69" authorId="3" shapeId="0">
+    <comment ref="G69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="3" shapeId="0">
+    <comment ref="I69" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="4" shapeId="0">
+    <comment ref="B70" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000020000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0">
+    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000021000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F70" authorId="3" shapeId="0">
+    <comment ref="F70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000022000000}">
       <text>
         <r>
           <rPr>
@@ -621,7 +633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G70" authorId="3" shapeId="0">
+    <comment ref="G70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000023000000}">
       <text>
         <r>
           <rPr>
@@ -634,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="3" shapeId="0">
+    <comment ref="I70" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000024000000}">
       <text>
         <r>
           <rPr>
@@ -647,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="4" shapeId="0">
+    <comment ref="B71" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000025000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D71" authorId="3" shapeId="0">
+    <comment ref="D71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000026000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="3" shapeId="0">
+    <comment ref="F71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000027000000}">
       <text>
         <r>
           <rPr>
@@ -698,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G71" authorId="3" shapeId="0">
+    <comment ref="G71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000028000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +723,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="3" shapeId="0">
+    <comment ref="I71" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000029000000}">
       <text>
         <r>
           <rPr>
@@ -724,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="4" shapeId="0">
+    <comment ref="B72" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="3" shapeId="0">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="3" shapeId="0">
+    <comment ref="F72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G72" authorId="3" shapeId="0">
+    <comment ref="G72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -787,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="3" shapeId="0">
+    <comment ref="I72" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -800,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="4" shapeId="0">
+    <comment ref="B73" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="4" shapeId="0">
+    <comment ref="B74" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000030000000}">
       <text>
         <r>
           <rPr>
@@ -848,7 +860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="4" shapeId="0">
+    <comment ref="B76" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000031000000}">
       <text>
         <r>
           <rPr>
@@ -872,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="4" shapeId="0">
+    <comment ref="B77" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000032000000}">
       <text>
         <r>
           <rPr>
@@ -896,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="4" shapeId="0">
+    <comment ref="B78" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000033000000}">
       <text>
         <r>
           <rPr>
@@ -920,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B79" authorId="4" shapeId="0">
+    <comment ref="B79" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000034000000}">
       <text>
         <r>
           <rPr>
@@ -944,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B80" authorId="4" shapeId="0">
+    <comment ref="B80" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000035000000}">
       <text>
         <r>
           <rPr>
@@ -968,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="4" shapeId="0">
+    <comment ref="B81" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000036000000}">
       <text>
         <r>
           <rPr>
@@ -992,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B82" authorId="4" shapeId="0">
+    <comment ref="B82" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="4" shapeId="0">
+    <comment ref="B83" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B84" authorId="4" shapeId="0">
+    <comment ref="B84" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B85" authorId="4" shapeId="0">
+    <comment ref="B85" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="4" shapeId="0">
+    <comment ref="B86" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="4" shapeId="0">
+    <comment ref="B87" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B88" authorId="4" shapeId="0">
+    <comment ref="B88" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="0" shapeId="0">
+    <comment ref="A90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="446">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -2444,12 +2456,84 @@
   </si>
   <si>
     <t>GREET1 2019</t>
+  </si>
+  <si>
+    <t>short tons per metric ton</t>
+  </si>
+  <si>
+    <t>cubic feet per cubic meter</t>
+  </si>
+  <si>
+    <t>kilometers per mile</t>
+  </si>
+  <si>
+    <t>liters per gallon</t>
+  </si>
+  <si>
+    <t>Gasoline kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Diesel 2D kg/cubic meter</t>
+  </si>
+  <si>
+    <t>Kerosene (jet fuel) kg/cubic meter</t>
+  </si>
+  <si>
+    <t>crude oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>heavy fuel oil kg/cubic meter</t>
+  </si>
+  <si>
+    <t>barrels/cubic meter</t>
+  </si>
+  <si>
+    <t>J per BTU</t>
+  </si>
+  <si>
+    <t>Converted to:</t>
+  </si>
+  <si>
+    <t>million metric tons</t>
+  </si>
+  <si>
+    <t>leave as is</t>
+  </si>
+  <si>
+    <t>liter</t>
+  </si>
+  <si>
+    <t>metric tons</t>
+  </si>
+  <si>
+    <t>trillion cubic meter</t>
+  </si>
+  <si>
+    <t>million liter</t>
+  </si>
+  <si>
+    <t>thousand cubic meter</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>kilometers per liter</t>
+  </si>
+  <si>
+    <t>terajoules</t>
+  </si>
+  <si>
+    <t>original unit</t>
+  </si>
+  <si>
+    <t>gallons per liter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -2739,7 +2823,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2982,6 +3066,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3468,7 +3570,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3870,6 +3972,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3897,22 +4007,22 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="48"/>
-    <cellStyle name="Body: normal cell 2" xfId="57"/>
+    <cellStyle name="Body: normal cell" xfId="48" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Comma" xfId="61" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59"/>
-    <cellStyle name="Footnotes: all except top row" xfId="52"/>
-    <cellStyle name="Footnotes: top row" xfId="45"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="52" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="45" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="42"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Header: top rows" xfId="51"/>
+    <cellStyle name="Header: bottom row" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header: top rows" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -3922,16 +4032,16 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="54"/>
+    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46"/>
-    <cellStyle name="Parent row 2" xfId="56"/>
+    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Parent row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Percent" xfId="62" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="44"/>
-    <cellStyle name="Section Break: parent row" xfId="49"/>
-    <cellStyle name="Table title" xfId="50"/>
-    <cellStyle name="Table title 2" xfId="60"/>
+    <cellStyle name="Section Break" xfId="44" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="49" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table title" xfId="50" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3963,7 +4073,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4055,6 +4165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4090,6 +4217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4265,42 +4409,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="39.3984375" customWidth="1"/>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="3" max="3" width="39.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4309,141 +4456,146 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="196" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="198" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="199"/>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="198" t="s">
+        <v>444</v>
+      </c>
+      <c r="C37" s="209" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="203" t="s">
         <v>350</v>
       </c>
@@ -4454,153 +4606,195 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="201" t="s">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="211" t="s">
         <v>394</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="197" t="s">
+      <c r="C39" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="197" t="s">
+      <c r="C40" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="201" t="s">
+      <c r="C41" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="211" t="s">
         <v>388</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="201" t="s">
+      <c r="C42" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="211" t="s">
         <v>391</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="201" t="s">
+      <c r="C43" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="211" t="s">
         <v>357</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C44" s="204" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="198" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="203" t="s">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="213" t="s">
         <v>350</v>
       </c>
-      <c r="B47" s="203" t="s">
+      <c r="B47" s="213" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="201" t="s">
         <v>394</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C48" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="197" t="s">
         <v>324</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="197" t="s">
+      <c r="C49" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="201" t="s">
         <v>393</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="201" t="s">
         <v>389</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="201" t="s">
         <v>355</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C56" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C59" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4608,13 +4802,109 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
       </c>
       <c r="B64" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="B66" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>35.314700000000002</v>
+      </c>
+      <c r="B67" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1.60934</v>
+      </c>
+      <c r="B68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="B69" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>748</v>
+      </c>
+      <c r="B72" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>849</v>
+      </c>
+      <c r="B73" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>808</v>
+      </c>
+      <c r="B74" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>881</v>
+      </c>
+      <c r="B75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>905</v>
+      </c>
+      <c r="B76" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>6.29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1055.06</v>
+      </c>
+      <c r="B81" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4624,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4635,14 +4925,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.08984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>387</v>
       </c>
@@ -4749,8 +5039,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -4761,7 +5051,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -4774,7 +5064,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -4785,7 +5075,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -4796,7 +5086,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -4804,12 +5094,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -4919,7 +5209,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5029,17 +5319,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5152,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5265,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5378,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5491,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5604,7 +5894,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +6007,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -5830,7 +6120,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -5943,7 +6233,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6056,7 +6346,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6169,7 +6459,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6282,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6395,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6508,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6621,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -6734,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -6847,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -6960,7 +7250,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7073,7 +7363,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7476,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>380</v>
       </c>
@@ -7299,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -7412,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7525,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7638,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -7751,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -7864,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -7977,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8090,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8203,7 +8493,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8606,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8429,7 +8719,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8542,12 +8832,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8660,7 +8950,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -8773,7 +9063,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -8886,7 +9176,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -8999,12 +9289,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9117,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9230,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9343,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9456,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9569,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9682,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -9795,12 +10085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -9913,7 +10203,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10026,7 +10316,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10139,7 +10429,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10252,7 +10542,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10365,7 +10655,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10478,7 +10768,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10591,7 +10881,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10704,7 +10994,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +11107,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -10930,7 +11220,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11043,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11156,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11269,8 +11559,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
@@ -11310,37 +11600,37 @@
       <c r="AJ78" s="208"/>
       <c r="AK78" s="208"/>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
@@ -11355,45 +11645,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.1328125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.265625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="22"/>
-    <col min="11" max="11" width="10.3984375" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.1328125" style="22"/>
-    <col min="15" max="15" width="12.86328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.1328125" style="22"/>
-    <col min="19" max="19" width="10.3984375" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.1328125" style="22"/>
-    <col min="23" max="23" width="10.73046875" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.1328125" style="22"/>
+    <col min="1" max="1" width="33.08984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="22"/>
+    <col min="11" max="11" width="10.36328125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.08984375" style="22"/>
+    <col min="15" max="15" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.08984375" style="22"/>
+    <col min="19" max="19" width="10.36328125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.08984375" style="22"/>
+    <col min="23" max="23" width="10.7265625" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.08984375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11416,7 +11706,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11441,7 +11731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11458,7 +11748,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11483,7 +11773,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11520,7 +11810,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11557,7 +11847,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11594,7 +11884,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11627,7 +11917,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11668,7 +11958,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11705,7 +11995,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -11734,7 +12024,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -11763,7 +12053,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -11801,7 +12091,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -11835,7 +12125,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -11873,7 +12163,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -11907,7 +12197,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -11941,7 +12231,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -11972,7 +12262,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="68" t="s">
         <v>408</v>
       </c>
@@ -11999,7 +12289,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12028,7 +12318,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12057,7 +12347,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12086,7 +12376,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="70" t="s">
         <v>409</v>
       </c>
@@ -12115,7 +12405,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12144,7 +12434,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12173,7 +12463,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12203,7 +12493,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12232,7 +12522,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12261,7 +12551,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12291,7 +12581,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12320,7 +12610,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12350,7 +12640,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12379,7 +12669,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12409,7 +12699,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12439,7 +12729,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12469,7 +12759,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12499,7 +12789,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12530,7 +12820,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12561,7 +12851,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12591,7 +12881,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12621,7 +12911,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12651,7 +12941,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12681,7 +12971,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -12710,7 +13000,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -12740,7 +13030,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="48" t="s">
         <v>410</v>
       </c>
@@ -12769,7 +13059,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -12798,7 +13088,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -12828,7 +13118,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -12858,7 +13148,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -12888,7 +13178,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -12918,7 +13208,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -12948,7 +13238,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -12978,7 +13268,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13008,7 +13298,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13037,7 +13327,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13064,7 +13354,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13093,7 +13383,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13116,7 +13406,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13145,7 +13435,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13175,7 +13465,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13204,7 +13494,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13225,7 +13515,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13255,7 +13545,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13276,7 +13566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13302,7 +13592,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13330,7 +13620,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13358,7 +13648,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13386,7 +13676,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13415,7 +13705,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13444,7 +13734,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13472,7 +13762,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13499,7 +13789,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13527,7 +13817,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="48" t="s">
         <v>411</v>
       </c>
@@ -13555,7 +13845,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13582,7 +13872,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13611,7 +13901,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13639,7 +13929,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13666,7 +13956,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13693,7 +13983,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -13720,7 +14010,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="71" t="s">
         <v>412</v>
       </c>
@@ -13747,7 +14037,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -13770,7 +14060,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -13793,7 +14083,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -13816,7 +14106,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -13843,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -13870,7 +14160,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -13897,7 +14187,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -13924,7 +14214,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -13951,7 +14241,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -13978,7 +14268,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="118" t="s">
         <v>413</v>
       </c>
@@ -14012,7 +14302,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="123" t="s">
         <v>414</v>
       </c>
@@ -14038,12 +14328,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14058,7 +14348,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14076,7 +14366,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14120,7 +14410,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14164,7 +14454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14208,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14252,7 +14542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14296,13 +14586,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14311,7 +14601,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14334,7 +14624,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14355,7 +14645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14378,7 +14668,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14401,7 +14691,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14424,7 +14714,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14447,7 +14737,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14470,17 +14760,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14488,7 +14778,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14498,7 +14788,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14506,7 +14796,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14519,7 +14809,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14532,7 +14822,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14552,7 +14842,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14575,7 +14865,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14595,7 +14885,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14627,7 +14917,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14659,7 +14949,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -14715,7 +15005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -14771,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -14827,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -14883,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -14939,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -14996,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15054,7 +15344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15112,7 +15402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15128,7 +15418,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15138,7 +15428,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15150,7 +15440,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15172,7 +15462,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15194,7 +15484,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15216,7 +15506,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15238,7 +15528,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15260,7 +15550,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15282,7 +15572,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15292,7 +15582,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15314,7 +15604,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15336,7 +15626,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15359,7 +15649,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15382,7 +15672,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15405,7 +15695,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15428,7 +15718,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15439,7 +15729,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15468,7 +15758,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15497,7 +15787,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15526,7 +15816,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15555,7 +15845,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15584,7 +15874,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15613,7 +15903,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15642,7 +15932,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15671,7 +15961,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15700,7 +15990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="22" t="s">
         <v>415</v>
       </c>
@@ -15720,7 +16010,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="22" t="s">
         <v>416</v>
       </c>
@@ -15740,7 +16030,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="22" t="s">
         <v>417</v>
       </c>
@@ -15760,7 +16050,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="22" t="s">
         <v>418</v>
       </c>
@@ -15780,7 +16070,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="22" t="s">
         <v>419</v>
       </c>
@@ -15800,7 +16090,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="22" t="s">
         <v>420</v>
       </c>
@@ -15822,19 +16112,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B100" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$D$100:$E$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"None, GWP, GTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>$C$93:$D$93</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"AR5/GWP,AR5/GTP,AR4/GWP,AR3/GWP,AR2/GWP,AR1/GWP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"1,2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15844,24 +16134,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="U13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -15968,7 +16258,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -16109,154 +16399,154 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" s="210" t="s">
         <v>323</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^12</f>
-        <v>19437477000000</v>
+        <f>'AEO Table 73'!C66*10^12*About!$A$66</f>
+        <v>21426125271870</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^12</f>
-        <v>19706896000000</v>
+        <f>'AEO Table 73'!D66*10^12*About!$A$66</f>
+        <v>21723108529760</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^12</f>
-        <v>19588093000000</v>
+        <f>'AEO Table 73'!E66*10^12*About!$A$66</f>
+        <v>21592150794830</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^12</f>
-        <v>19676338000000</v>
+        <f>'AEO Table 73'!F66*10^12*About!$A$66</f>
+        <v>21689424140780</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^12</f>
-        <v>19593861000000</v>
+        <f>'AEO Table 73'!G66*10^12*About!$A$66</f>
+        <v>21598508918910</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^12</f>
-        <v>19763271000000</v>
+        <f>'AEO Table 73'!H66*10^12*About!$A$66</f>
+        <v>21785251256009.996</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^12</f>
-        <v>19874037000000</v>
+        <f>'AEO Table 73'!I66*10^12*About!$A$66</f>
+        <v>21907349725469.996</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^12</f>
-        <v>19832983000000</v>
+        <f>'AEO Table 73'!J66*10^12*About!$A$66</f>
+        <v>21862095490729.996</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^12</f>
-        <v>19854052000000</v>
+        <f>'AEO Table 73'!K66*10^12*About!$A$66</f>
+        <v>21885320060119.996</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^12</f>
-        <v>19849159000000</v>
+        <f>'AEO Table 73'!L66*10^12*About!$A$66</f>
+        <v>21879926457289.996</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^12</f>
-        <v>19841606000000</v>
+        <f>'AEO Table 73'!M66*10^12*About!$A$66</f>
+        <v>21871600709859.996</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^12</f>
-        <v>19838451000000</v>
+        <f>'AEO Table 73'!N66*10^12*About!$A$66</f>
+        <v>21868122921809.996</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^12</f>
-        <v>19782232000000</v>
+        <f>'AEO Table 73'!O66*10^12*About!$A$66</f>
+        <v>21806152155919.996</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^12</f>
-        <v>19750866000000</v>
+        <f>'AEO Table 73'!P66*10^12*About!$A$66</f>
+        <v>21771577100459.996</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^12</f>
-        <v>19757530000000</v>
+        <f>'AEO Table 73'!Q66*10^12*About!$A$66</f>
+        <v>21778922894299.996</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^12</f>
-        <v>19792145000000</v>
+        <f>'AEO Table 73'!R66*10^12*About!$A$66</f>
+        <v>21817079354949.996</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^12</f>
-        <v>19787580000000</v>
+        <f>'AEO Table 73'!S66*10^12*About!$A$66</f>
+        <v>21812047309799.996</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^12</f>
-        <v>19792101000000</v>
+        <f>'AEO Table 73'!T66*10^12*About!$A$66</f>
+        <v>21817030853309.996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^12</f>
-        <v>19801369000000</v>
+        <f>'AEO Table 73'!U66*10^12*About!$A$66</f>
+        <v>21827247062389.996</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^12</f>
-        <v>19790552000000</v>
+        <f>'AEO Table 73'!V66*10^12*About!$A$66</f>
+        <v>21815323375119.996</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^12</f>
-        <v>19813770000000</v>
+        <f>'AEO Table 73'!W66*10^12*About!$A$66</f>
+        <v>21840916808699.996</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^12</f>
-        <v>19823812000000</v>
+        <f>'AEO Table 73'!X66*10^12*About!$A$66</f>
+        <v>21851986205719.996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^12</f>
-        <v>19819962000000</v>
+        <f>'AEO Table 73'!Y66*10^12*About!$A$66</f>
+        <v>21847742312219.996</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^12</f>
-        <v>19817593000000</v>
+        <f>'AEO Table 73'!Z66*10^12*About!$A$66</f>
+        <v>21845130939829.996</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^12</f>
-        <v>19814734000000</v>
+        <f>'AEO Table 73'!AA66*10^12*About!$A$66</f>
+        <v>21841979435539.996</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^12</f>
-        <v>19808729000000</v>
+        <f>'AEO Table 73'!AB66*10^12*About!$A$66</f>
+        <v>21835360063989.996</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^12</f>
-        <v>19816940000000</v>
+        <f>'AEO Table 73'!AC66*10^12*About!$A$66</f>
+        <v>21844411131399.996</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^12</f>
-        <v>19822159000000</v>
+        <f>'AEO Table 73'!AD66*10^12*About!$A$66</f>
+        <v>21850164087289.996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^12</f>
-        <v>19832388000000</v>
+        <f>'AEO Table 73'!AE66*10^12*About!$A$66</f>
+        <v>21861439616279.996</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^12</f>
-        <v>19856539000000</v>
+        <f>'AEO Table 73'!AF66*10^12*About!$A$66</f>
+        <v>21888061505089.996</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^12</f>
-        <v>19880623000000</v>
+        <f>'AEO Table 73'!AG66*10^12*About!$A$66</f>
+        <v>21914609539129.996</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^12</f>
-        <v>19899242000000</v>
+        <f>'AEO Table 73'!AH66*10^12*About!$A$66</f>
+        <v>21935133449019.996</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^12</f>
-        <v>19884989000000</v>
+        <f>'AEO Table 73'!AI66*10^12*About!$A$66</f>
+        <v>21919422224589.996</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^12</f>
-        <v>19887484000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+        <f>'AEO Table 73'!AJ66*10^12*About!$A$66</f>
+        <v>21922172488039.996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" s="202" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^15</f>
-        <v>1036999999999999.9</v>
+        <f>'AEO Table 73'!C54*10^15*About!$A$67</f>
+        <v>3.66213439E+16</v>
       </c>
       <c r="C4" s="5">
         <f>'AEO Table 73'!D54*10^15</f>
@@ -16391,7 +16681,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
@@ -16532,7 +16822,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -16639,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -16746,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -16853,148 +17143,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="210" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81*10^6</f>
-        <v>17906000000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$81*10^6*About!$A$66</f>
+        <v>19737962860000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17135,7 +17425,7 @@
         <v>5023036000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17276,7 +17566,7 @@
         <v>5825000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17417,7 +17707,7 @@
         <v>3989233000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17558,7 +17848,7 @@
         <v>5359000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -17699,7 +17989,7 @@
         <v>5670000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -17840,7 +18130,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -17947,148 +18237,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="210" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69*10^6</f>
-        <v>12992301971719.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$69*10^6*About!$A$66</f>
+        <v>14321544386446.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -18229,7 +18519,7 @@
         <v>5676202000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18370,289 +18660,289 @@
         <v>6287000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="212" t="s">
         <v>370</v>
       </c>
       <c r="B20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="C20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="D20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="E20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="F20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="G20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="H20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="I20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="J20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="K20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="L20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="M20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="N20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="O20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="P20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="Q20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="R20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="S20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="T20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="U20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="V20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="W20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="X20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="Y20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="Z20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AA20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AB20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AC20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AD20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AE20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AF20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AG20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AH20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
       </c>
       <c r="AI20" s="6">
-        <f>'GREET1 Fuel_Specs'!$D$36*10^6</f>
-        <v>91410000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+        <f>'GREET1 Fuel_Specs'!$D$36*10^6*About!$A$70</f>
+        <v>24147962520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A21" s="210" t="s">
         <v>371</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90*10^6</f>
-        <v>13583444584264.561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$90*10^6*About!$A$66</f>
+        <v>14973166799680.666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -18792,6 +19082,9 @@
         <f>'GREET1 Fuel_Specs'!$D$62/'GREET1 Fuel_Specs'!$E$62*10^9</f>
         <v>134509803921.56865</v>
       </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18799,24 +19092,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="U10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.1328125" style="2"/>
+    <col min="36" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
@@ -18923,7 +19216,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
@@ -19064,289 +19357,289 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B3" s="5">
-        <f>'AEO Table 73'!C66*10^6</f>
-        <v>19437477</v>
+        <f>'AEO Table 73'!C66*10^6*About!$A$66</f>
+        <v>21426125.271869998</v>
       </c>
       <c r="C3" s="5">
-        <f>'AEO Table 73'!D66*10^6</f>
-        <v>19706896</v>
+        <f>'AEO Table 73'!D66*10^6*About!$A$66</f>
+        <v>21723108.529759999</v>
       </c>
       <c r="D3" s="5">
-        <f>'AEO Table 73'!E66*10^6</f>
-        <v>19588093</v>
+        <f>'AEO Table 73'!E66*10^6*About!$A$66</f>
+        <v>21592150.794829998</v>
       </c>
       <c r="E3" s="5">
-        <f>'AEO Table 73'!F66*10^6</f>
-        <v>19676338</v>
+        <f>'AEO Table 73'!F66*10^6*About!$A$66</f>
+        <v>21689424.140779998</v>
       </c>
       <c r="F3" s="5">
-        <f>'AEO Table 73'!G66*10^6</f>
-        <v>19593861</v>
+        <f>'AEO Table 73'!G66*10^6*About!$A$66</f>
+        <v>21598508.918909997</v>
       </c>
       <c r="G3" s="5">
-        <f>'AEO Table 73'!H66*10^6</f>
-        <v>19763271</v>
+        <f>'AEO Table 73'!H66*10^6*About!$A$66</f>
+        <v>21785251.25601</v>
       </c>
       <c r="H3" s="5">
-        <f>'AEO Table 73'!I66*10^6</f>
-        <v>19874037</v>
+        <f>'AEO Table 73'!I66*10^6*About!$A$66</f>
+        <v>21907349.725469999</v>
       </c>
       <c r="I3" s="5">
-        <f>'AEO Table 73'!J66*10^6</f>
-        <v>19832983</v>
+        <f>'AEO Table 73'!J66*10^6*About!$A$66</f>
+        <v>21862095.490729999</v>
       </c>
       <c r="J3" s="5">
-        <f>'AEO Table 73'!K66*10^6</f>
-        <v>19854052</v>
+        <f>'AEO Table 73'!K66*10^6*About!$A$66</f>
+        <v>21885320.060119998</v>
       </c>
       <c r="K3" s="5">
-        <f>'AEO Table 73'!L66*10^6</f>
-        <v>19849159</v>
+        <f>'AEO Table 73'!L66*10^6*About!$A$66</f>
+        <v>21879926.457289997</v>
       </c>
       <c r="L3" s="5">
-        <f>'AEO Table 73'!M66*10^6</f>
-        <v>19841606</v>
+        <f>'AEO Table 73'!M66*10^6*About!$A$66</f>
+        <v>21871600.709859997</v>
       </c>
       <c r="M3" s="5">
-        <f>'AEO Table 73'!N66*10^6</f>
-        <v>19838451</v>
+        <f>'AEO Table 73'!N66*10^6*About!$A$66</f>
+        <v>21868122.921809997</v>
       </c>
       <c r="N3" s="5">
-        <f>'AEO Table 73'!O66*10^6</f>
-        <v>19782232</v>
+        <f>'AEO Table 73'!O66*10^6*About!$A$66</f>
+        <v>21806152.155919999</v>
       </c>
       <c r="O3" s="5">
-        <f>'AEO Table 73'!P66*10^6</f>
-        <v>19750866</v>
+        <f>'AEO Table 73'!P66*10^6*About!$A$66</f>
+        <v>21771577.100459997</v>
       </c>
       <c r="P3" s="5">
-        <f>'AEO Table 73'!Q66*10^6</f>
-        <v>19757530</v>
+        <f>'AEO Table 73'!Q66*10^6*About!$A$66</f>
+        <v>21778922.894299999</v>
       </c>
       <c r="Q3" s="5">
-        <f>'AEO Table 73'!R66*10^6</f>
-        <v>19792145</v>
+        <f>'AEO Table 73'!R66*10^6*About!$A$66</f>
+        <v>21817079.35495</v>
       </c>
       <c r="R3" s="5">
-        <f>'AEO Table 73'!S66*10^6</f>
-        <v>19787580</v>
+        <f>'AEO Table 73'!S66*10^6*About!$A$66</f>
+        <v>21812047.309799999</v>
       </c>
       <c r="S3" s="5">
-        <f>'AEO Table 73'!T66*10^6</f>
-        <v>19792101</v>
+        <f>'AEO Table 73'!T66*10^6*About!$A$66</f>
+        <v>21817030.853309996</v>
       </c>
       <c r="T3" s="5">
-        <f>'AEO Table 73'!U66*10^6</f>
-        <v>19801369</v>
+        <f>'AEO Table 73'!U66*10^6*About!$A$66</f>
+        <v>21827247.06239</v>
       </c>
       <c r="U3" s="5">
-        <f>'AEO Table 73'!V66*10^6</f>
-        <v>19790552</v>
+        <f>'AEO Table 73'!V66*10^6*About!$A$66</f>
+        <v>21815323.375119999</v>
       </c>
       <c r="V3" s="5">
-        <f>'AEO Table 73'!W66*10^6</f>
-        <v>19813770</v>
+        <f>'AEO Table 73'!W66*10^6*About!$A$66</f>
+        <v>21840916.808699999</v>
       </c>
       <c r="W3" s="5">
-        <f>'AEO Table 73'!X66*10^6</f>
-        <v>19823812</v>
+        <f>'AEO Table 73'!X66*10^6*About!$A$66</f>
+        <v>21851986.205719996</v>
       </c>
       <c r="X3" s="5">
-        <f>'AEO Table 73'!Y66*10^6</f>
-        <v>19819962</v>
+        <f>'AEO Table 73'!Y66*10^6*About!$A$66</f>
+        <v>21847742.31222</v>
       </c>
       <c r="Y3" s="5">
-        <f>'AEO Table 73'!Z66*10^6</f>
-        <v>19817593</v>
+        <f>'AEO Table 73'!Z66*10^6*About!$A$66</f>
+        <v>21845130.939829998</v>
       </c>
       <c r="Z3" s="5">
-        <f>'AEO Table 73'!AA66*10^6</f>
-        <v>19814734</v>
+        <f>'AEO Table 73'!AA66*10^6*About!$A$66</f>
+        <v>21841979.435539998</v>
       </c>
       <c r="AA3" s="5">
-        <f>'AEO Table 73'!AB66*10^6</f>
-        <v>19808729</v>
+        <f>'AEO Table 73'!AB66*10^6*About!$A$66</f>
+        <v>21835360.063989997</v>
       </c>
       <c r="AB3" s="5">
-        <f>'AEO Table 73'!AC66*10^6</f>
-        <v>19816940</v>
+        <f>'AEO Table 73'!AC66*10^6*About!$A$66</f>
+        <v>21844411.131399997</v>
       </c>
       <c r="AC3" s="5">
-        <f>'AEO Table 73'!AD66*10^6</f>
-        <v>19822159</v>
+        <f>'AEO Table 73'!AD66*10^6*About!$A$66</f>
+        <v>21850164.087289996</v>
       </c>
       <c r="AD3" s="5">
-        <f>'AEO Table 73'!AE66*10^6</f>
-        <v>19832388</v>
+        <f>'AEO Table 73'!AE66*10^6*About!$A$66</f>
+        <v>21861439.616279997</v>
       </c>
       <c r="AE3" s="5">
-        <f>'AEO Table 73'!AF66*10^6</f>
-        <v>19856539</v>
+        <f>'AEO Table 73'!AF66*10^6*About!$A$66</f>
+        <v>21888061.505089998</v>
       </c>
       <c r="AF3" s="5">
-        <f>'AEO Table 73'!AG66*10^6</f>
-        <v>19880623</v>
+        <f>'AEO Table 73'!AG66*10^6*About!$A$66</f>
+        <v>21914609.539129999</v>
       </c>
       <c r="AG3" s="5">
-        <f>'AEO Table 73'!AH66*10^6</f>
-        <v>19899242</v>
+        <f>'AEO Table 73'!AH66*10^6*About!$A$66</f>
+        <v>21935133.449019998</v>
       </c>
       <c r="AH3" s="5">
-        <f>'AEO Table 73'!AI66*10^6</f>
-        <v>19884989</v>
+        <f>'AEO Table 73'!AI66*10^6*About!$A$66</f>
+        <v>21919422.22459</v>
       </c>
       <c r="AI3" s="5">
-        <f>'AEO Table 73'!AJ66*10^6</f>
-        <v>19887484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+        <f>'AEO Table 73'!AJ66*10^6*About!$A$66</f>
+        <v>21922172.488039996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B4" s="5">
-        <f>'AEO Table 73'!C54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!C54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="C4" s="5">
-        <f>'AEO Table 73'!D54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!D54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="D4" s="5">
-        <f>'AEO Table 73'!E54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!E54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="E4" s="5">
-        <f>'AEO Table 73'!F54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!F54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="F4" s="5">
-        <f>'AEO Table 73'!G54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!G54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="G4" s="5">
-        <f>'AEO Table 73'!H54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!H54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="H4" s="5">
-        <f>'AEO Table 73'!I54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!I54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="I4" s="5">
-        <f>'AEO Table 73'!J54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!J54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="J4" s="5">
-        <f>'AEO Table 73'!K54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!K54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="K4" s="5">
-        <f>'AEO Table 73'!L54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!L54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="L4" s="5">
-        <f>'AEO Table 73'!M54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!M54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="M4" s="5">
-        <f>'AEO Table 73'!N54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!N54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="N4" s="5">
-        <f>'AEO Table 73'!O54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!O54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="O4" s="5">
-        <f>'AEO Table 73'!P54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!P54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="P4" s="5">
-        <f>'AEO Table 73'!Q54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!Q54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="Q4" s="5">
-        <f>'AEO Table 73'!R54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!R54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="R4" s="5">
-        <f>'AEO Table 73'!S54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!S54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="S4" s="5">
-        <f>'AEO Table 73'!T54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!T54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="T4" s="5">
-        <f>'AEO Table 73'!U54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!U54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="U4" s="5">
-        <f>'AEO Table 73'!V54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!V54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="V4" s="5">
-        <f>'AEO Table 73'!W54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!W54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="W4" s="5">
-        <f>'AEO Table 73'!X54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!X54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="X4" s="5">
-        <f>'AEO Table 73'!Y54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!Y54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="Y4" s="5">
-        <f>'AEO Table 73'!Z54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!Z54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="Z4" s="5">
-        <f>'AEO Table 73'!AA54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AA54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AA4" s="5">
-        <f>'AEO Table 73'!AB54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AB54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AB4" s="5">
-        <f>'AEO Table 73'!AC54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AC54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AC4" s="5">
-        <f>'AEO Table 73'!AD54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AD54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AD4" s="5">
-        <f>'AEO Table 73'!AE54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AE54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AE4" s="5">
-        <f>'AEO Table 73'!AF54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AF54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AF4" s="5">
-        <f>'AEO Table 73'!AG54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AG54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AG4" s="5">
-        <f>'AEO Table 73'!AH54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AH54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AH4" s="5">
-        <f>'AEO Table 73'!AI54*10^6</f>
-        <v>1036999.9999999999</v>
+        <f>'AEO Table 73'!AI54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
       </c>
       <c r="AI4" s="5">
-        <f>'AEO Table 73'!AJ54*10^6</f>
-        <v>1036999.9999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'AEO Table 73'!AJ54*10^6*About!$A$67</f>
+        <v>36621343.899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
@@ -19487,7 +19780,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -19594,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -19701,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -19808,148 +20101,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="C9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="D9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="E9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="F9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="G9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="H9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="I9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="J9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="K9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="L9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="M9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="N9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="O9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="P9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Q9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="R9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="S9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="T9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="U9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="V9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="W9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="X9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Y9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="Z9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AA9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AB9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AC9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AD9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AE9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AF9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AG9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AH9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
       </c>
       <c r="AI9" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$81</f>
-        <v>17906000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$81*About!$A$66</f>
+        <v>19737962.859999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20090,7 +20383,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20231,7 +20524,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20372,7 +20665,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20513,7 +20806,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -20654,7 +20947,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -20795,7 +21088,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -20902,148 +21195,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="C17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="D17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="E17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="F17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="G17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="H17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="I17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="J17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="K17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="L17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="M17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="N17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="O17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="P17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Q17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="R17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="S17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="T17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="U17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="V17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="W17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="X17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Y17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="Z17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AA17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AB17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AC17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AD17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AE17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AF17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AG17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AH17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
       </c>
       <c r="AI17" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$69</f>
-        <v>12992301.9717196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$69*About!$A$66</f>
+        <v>14321544.386446232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>368</v>
       </c>
@@ -21184,7 +21477,7 @@
         <v>5676202</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>369</v>
       </c>
@@ -21325,289 +21618,289 @@
         <v>6287000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="C20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="D20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="E20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="F20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="G20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="H20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="I20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="J20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="K20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="L20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="M20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="N20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="O20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="P20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Q20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="R20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="S20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="T20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="U20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="V20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="W20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="X20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Y20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="Z20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AA20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AB20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AC20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AD20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AE20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AF20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AG20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AH20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-      <c r="AI20" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$36</f>
-        <v>91410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="C20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="D20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="E20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="F20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="G20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="H20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="I20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="J20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="K20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="L20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="M20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="N20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="O20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="P20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="Q20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="R20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="S20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="T20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="U20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="V20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="W20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="X20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="Y20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="Z20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AA20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AB20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AC20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AD20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AE20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AF20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AG20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AH20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+      <c r="AI20" s="214">
+        <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
+        <v>24147.962520000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="C21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="D21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="E21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="F21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="G21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="H21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="I21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="J21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="K21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="L21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="M21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="N21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="O21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="P21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Q21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="R21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="S21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="T21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="U21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="V21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="W21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="X21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Y21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="Z21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AA21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AB21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AC21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AD21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AE21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AF21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AG21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AH21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
       </c>
       <c r="AI21" s="5">
-        <f>'GREET1 Fuel_Specs'!$D$90</f>
-        <v>13583444.58426456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'GREET1 Fuel_Specs'!$D$90*About!$A$66</f>
+        <v>14973166.799680665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>367</v>
       </c>
@@ -21754,21 +22047,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="38.26953125" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -21875,7 +22170,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -21982,7 +22277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22089,289 +22384,289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>318</v>
       </c>
       <c r="B4" s="6">
-        <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
-        <v>120396.26190476191</v>
+        <f>'AEO Table 73'!C32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51185.610048530943</v>
       </c>
       <c r="C4" s="6">
-        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
-        <v>120363.33333333333</v>
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51171.610701790996</v>
       </c>
       <c r="D4" s="6">
-        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
-        <v>120379.16666666667</v>
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51178.342130266821</v>
       </c>
       <c r="E4" s="6">
-        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
-        <v>120387.38095238095</v>
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51181.834375115177</v>
       </c>
       <c r="F4" s="6">
-        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
-        <v>120365.73809523809</v>
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51172.633069123418</v>
       </c>
       <c r="G4" s="6">
-        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
-        <v>120317.52380952382</v>
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51152.135110230869</v>
       </c>
       <c r="H4" s="6">
-        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
-        <v>120257.52380952382</v>
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51126.626539164594</v>
       </c>
       <c r="I4" s="6">
-        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
-        <v>120238.14285714286</v>
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51118.38686581223</v>
       </c>
       <c r="J4" s="6">
-        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
-        <v>120225.69047619047</v>
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51113.092825071093</v>
       </c>
       <c r="K4" s="6">
-        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
-        <v>120215.88095238095</v>
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51108.922376150731</v>
       </c>
       <c r="L4" s="6">
-        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
-        <v>120205.23809523809</v>
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51104.397641521122</v>
       </c>
       <c r="M4" s="6">
-        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
-        <v>120194.90476190476</v>
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51100.004498726375</v>
       </c>
       <c r="N4" s="6">
-        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
-        <v>120184.57142857143</v>
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51095.611355931629</v>
       </c>
       <c r="O4" s="6">
-        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
-        <v>120186.35714285714</v>
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51096.370539594311</v>
       </c>
       <c r="P4" s="6">
-        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
-        <v>120169.33333333333</v>
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51089.132988676698</v>
       </c>
       <c r="Q4" s="6">
-        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
-        <v>120159.80952380953</v>
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51085.084009142367</v>
       </c>
       <c r="R4" s="6">
-        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
-        <v>120153.90476190476</v>
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51082.573641831084</v>
       </c>
       <c r="S4" s="6">
-        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
-        <v>120139.92857142857</v>
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51076.631764364451</v>
       </c>
       <c r="T4" s="6">
-        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
-        <v>120123.47619047618</v>
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51069.6371522189</v>
       </c>
       <c r="U4" s="6">
-        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
-        <v>120105.47619047618</v>
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51061.984580899014</v>
       </c>
       <c r="V4" s="6">
-        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
-        <v>120085.26190476191</v>
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51053.390621837403</v>
       </c>
       <c r="W4" s="6">
-        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
-        <v>120065.59523809524</v>
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51045.029479099016</v>
       </c>
       <c r="X4" s="6">
-        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
-        <v>120040.19047619047</v>
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51034.228826191182</v>
       </c>
       <c r="Y4" s="6">
-        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
-        <v>120011.85714285714</v>
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51022.183112076549</v>
       </c>
       <c r="Z4" s="6">
-        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
-        <v>119980</v>
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>51008.639275534217</v>
       </c>
       <c r="AA4" s="6">
-        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
-        <v>119949.21428571429</v>
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50995.550949189499</v>
       </c>
       <c r="AB4" s="6">
-        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
-        <v>119910.09523809524</v>
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50978.919765752238</v>
       </c>
       <c r="AC4" s="6">
-        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
-        <v>119871.47619047618</v>
+        <f>'AEO Table 73'!AD32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50962.50115374053</v>
       </c>
       <c r="AD4" s="6">
-        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
-        <v>119830.30952380953</v>
+        <f>'AEO Table 73'!AE32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50944.999439703395</v>
       </c>
       <c r="AE4" s="6">
-        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
-        <v>119784.40476190476</v>
+        <f>'AEO Table 73'!AF32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50925.483358347927</v>
       </c>
       <c r="AF4" s="6">
-        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
-        <v>119727.33333333333</v>
+        <f>'AEO Table 73'!AG32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50901.219848488443</v>
       </c>
       <c r="AG4" s="6">
-        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
-        <v>119664.71428571429</v>
+        <f>'AEO Table 73'!AH32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50874.597808050232</v>
       </c>
       <c r="AH4" s="6">
-        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
-        <v>119596.14285714286</v>
+        <f>'AEO Table 73'!AI32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.445155403053</v>
       </c>
       <c r="AI4" s="6">
-        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
-        <v>119596.09523809524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>50845.424910505382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>319</v>
       </c>
       <c r="B5" s="6">
-        <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!C19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="C5" s="6">
-        <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!D19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="D5" s="6">
-        <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!E19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="E5" s="6">
-        <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!F19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="F5" s="6">
-        <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!G19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="G5" s="6">
-        <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!H19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="H5" s="6">
-        <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!I19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="I5" s="6">
-        <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!J19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="J5" s="6">
-        <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!K19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="K5" s="6">
-        <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!L19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="L5" s="6">
-        <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!M19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="M5" s="6">
-        <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!N19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="N5" s="6">
-        <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!O19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="O5" s="6">
-        <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!P19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="P5" s="6">
-        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Q19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Q5" s="6">
-        <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!R19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="R5" s="6">
-        <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!S19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="S5" s="6">
-        <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!T19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="T5" s="6">
-        <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!U19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="U5" s="6">
-        <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!V19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="V5" s="6">
-        <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!W19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="W5" s="6">
-        <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!X19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="X5" s="6">
-        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Y19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Y5" s="6">
-        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!Z19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="Z5" s="6">
-        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AA19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AA5" s="6">
-        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AB19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AB5" s="6">
-        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AC19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AC5" s="6">
-        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AD19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AD5" s="6">
-        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AE19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AE5" s="6">
-        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AF19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AF5" s="6">
-        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AG19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AG5" s="6">
-        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AH19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AH5" s="6">
-        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
+        <f>'AEO Table 73'!AI19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
       </c>
       <c r="AI5" s="6">
-        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
-        <v>138690.47619047618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>58963.264468678673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22478,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22585,148 +22880,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>320</v>
       </c>
       <c r="B8" s="6">
-        <f>'AEO Table 73'!C30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!C30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="C8" s="6">
-        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="D8" s="6">
-        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="E8" s="6">
-        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="F8" s="6">
-        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="G8" s="6">
-        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="H8" s="6">
-        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="I8" s="6">
-        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="J8" s="6">
-        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="K8" s="6">
-        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="L8" s="6">
-        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="M8" s="6">
-        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="N8" s="6">
-        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="O8" s="6">
-        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="P8" s="6">
-        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Q8" s="6">
-        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="R8" s="6">
-        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="S8" s="6">
-        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="T8" s="6">
-        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="U8" s="6">
-        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="V8" s="6">
-        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="W8" s="6">
-        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="X8" s="6">
-        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Y8" s="6">
-        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="Z8" s="6">
-        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AA8" s="6">
-        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AB8" s="6">
-        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AC8" s="6">
-        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AD30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AD8" s="6">
-        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AE30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AE8" s="6">
-        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AF30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AF8" s="6">
-        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AG30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AG8" s="6">
-        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AH30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AH8" s="6">
-        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel</f>
-        <v>135000</v>
+        <f>'AEO Table 73'!AI30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
       </c>
       <c r="AI8" s="6">
-        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'AEO Table 73'!AJ30*10^6/gal_per_barrel*About!$A$68/About!$A$69</f>
+        <v>57394.284899125851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -22833,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -22940,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -23053,28 +23348,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>299</v>
       </c>
       <c r="B2">
-        <f>10^12</f>
-        <v>1000000000000</v>
+        <f>10^12*About!$A$81</f>
+        <v>1055060000000000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE79AB1-B504-4F53-9472-CD5E63D4373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADAFDA5-91E1-4AF5-9978-CA7D8D4E30C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="180" windowWidth="15170" windowHeight="13700" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="gal_per_barrel">About!$A$63</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2488,9 +2488,6 @@
     <t>barrels/cubic meter</t>
   </si>
   <si>
-    <t>J per BTU</t>
-  </si>
-  <si>
     <t>Converted to:</t>
   </si>
   <si>
@@ -2528,6 +2525,9 @@
   </si>
   <si>
     <t>gallons per liter</t>
+  </si>
+  <si>
+    <t>BTU per TJ</t>
   </si>
 </sst>
 </file>
@@ -3969,9 +3969,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3980,6 +3977,9 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4412,42 +4412,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="39.36328125" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4456,146 +4456,146 @@
       </c>
       <c r="C6" s="202"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="196" t="s">
         <v>403</v>
       </c>
       <c r="C13" s="202"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="198" t="s">
         <v>331</v>
       </c>
       <c r="B37" s="198" t="s">
-        <v>444</v>
-      </c>
-      <c r="C37" s="209" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="C37" s="208" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="203" t="s">
         <v>350</v>
       </c>
@@ -4606,18 +4606,18 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="211" t="s">
+    <row r="39" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="210" t="s">
         <v>394</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>324</v>
       </c>
@@ -4625,10 +4625,10 @@
         <v>333</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>367</v>
       </c>
@@ -4636,33 +4636,33 @@
         <v>395</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="211" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="210" t="s">
         <v>388</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="211" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="210" t="s">
         <v>391</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="211" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="210" t="s">
         <v>357</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4672,27 +4672,27 @@
         <v>361</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="201"/>
     </row>
-    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="198" t="s">
         <v>337</v>
       </c>
       <c r="B46" s="199"/>
     </row>
-    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="213" t="s">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="212" t="s">
         <v>350</v>
       </c>
-      <c r="B47" s="213" t="s">
+      <c r="B47" s="212" t="s">
         <v>352</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="201" t="s">
         <v>394</v>
       </c>
@@ -4700,10 +4700,10 @@
         <v>338</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="197" t="s">
         <v>324</v>
       </c>
@@ -4711,10 +4711,10 @@
         <v>339</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>367</v>
       </c>
@@ -4722,10 +4722,10 @@
         <v>270</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="201" t="s">
         <v>393</v>
       </c>
@@ -4733,10 +4733,10 @@
         <v>349</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="201" t="s">
         <v>389</v>
       </c>
@@ -4744,10 +4744,10 @@
         <v>390</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="201" t="s">
         <v>355</v>
       </c>
@@ -4755,46 +4755,46 @@
         <v>356</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="198" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="196" t="s">
         <v>316</v>
       </c>
       <c r="B62" s="202"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="200">
         <v>42</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>3.142*10^6</f>
         <v>3142000</v>
@@ -4811,7 +4811,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.1023099999999999</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>35.314700000000002</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.60934</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.7854100000000002</v>
       </c>
@@ -4843,15 +4843,15 @@
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>0.26417200000000002</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>748</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>849</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>808</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>881</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>905</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6.29</v>
       </c>
@@ -4899,12 +4899,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>1055.06</v>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="207">
+        <v>947800000</v>
       </c>
       <c r="B81" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4925,14 +4925,14 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="7" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.08984375" style="7"/>
+    <col min="1" max="1" width="20.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>387</v>
       </c>
@@ -5039,8 +5039,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="s">
         <v>121</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="20" t="s">
         <v>120</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -5094,12 +5094,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
@@ -5319,17 +5319,17 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>114</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>112</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>111</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>110</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>108</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>106</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>105</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>-1.1E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>104</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>103</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>102</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>99</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>96</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>-2.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>95</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>380</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>378</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>94</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>92</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>91</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>90</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>89</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>87</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>-4.8299999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>86</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>-3.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>85</v>
       </c>
@@ -8832,12 +8832,12 @@
         <v>-1.013E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>84</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>83</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>82</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>81</v>
       </c>
@@ -9289,12 +9289,12 @@
         <v>-2.7700000000000001E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>80</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>79</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>78</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>77</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>75</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>74</v>
       </c>
@@ -10085,12 +10085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>73</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>-1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>71</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>-2.1699999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>70</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>2.8499999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>66</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>2.5799999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>65</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>5.7700000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>64</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>-1.2830000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>63</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>62</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>61</v>
       </c>
@@ -11559,78 +11559,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="208" t="s">
+    <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="208"/>
-      <c r="D78" s="208"/>
-      <c r="E78" s="208"/>
-      <c r="F78" s="208"/>
-      <c r="G78" s="208"/>
-      <c r="H78" s="208"/>
-      <c r="I78" s="208"/>
-      <c r="J78" s="208"/>
-      <c r="K78" s="208"/>
-      <c r="L78" s="208"/>
-      <c r="M78" s="208"/>
-      <c r="N78" s="208"/>
-      <c r="O78" s="208"/>
-      <c r="P78" s="208"/>
-      <c r="Q78" s="208"/>
-      <c r="R78" s="208"/>
-      <c r="S78" s="208"/>
-      <c r="T78" s="208"/>
-      <c r="U78" s="208"/>
-      <c r="V78" s="208"/>
-      <c r="W78" s="208"/>
-      <c r="X78" s="208"/>
-      <c r="Y78" s="208"/>
-      <c r="Z78" s="208"/>
-      <c r="AA78" s="208"/>
-      <c r="AB78" s="208"/>
-      <c r="AC78" s="208"/>
-      <c r="AD78" s="208"/>
-      <c r="AE78" s="208"/>
-      <c r="AF78" s="208"/>
-      <c r="AG78" s="208"/>
-      <c r="AH78" s="208"/>
-      <c r="AI78" s="208"/>
-      <c r="AJ78" s="208"/>
-      <c r="AK78" s="208"/>
-    </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="214"/>
+      <c r="D78" s="214"/>
+      <c r="E78" s="214"/>
+      <c r="F78" s="214"/>
+      <c r="G78" s="214"/>
+      <c r="H78" s="214"/>
+      <c r="I78" s="214"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="214"/>
+      <c r="L78" s="214"/>
+      <c r="M78" s="214"/>
+      <c r="N78" s="214"/>
+      <c r="O78" s="214"/>
+      <c r="P78" s="214"/>
+      <c r="Q78" s="214"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="214"/>
+      <c r="T78" s="214"/>
+      <c r="U78" s="214"/>
+      <c r="V78" s="214"/>
+      <c r="W78" s="214"/>
+      <c r="X78" s="214"/>
+      <c r="Y78" s="214"/>
+      <c r="Z78" s="214"/>
+      <c r="AA78" s="214"/>
+      <c r="AB78" s="214"/>
+      <c r="AC78" s="214"/>
+      <c r="AD78" s="214"/>
+      <c r="AE78" s="214"/>
+      <c r="AF78" s="214"/>
+      <c r="AG78" s="214"/>
+      <c r="AH78" s="214"/>
+      <c r="AI78" s="214"/>
+      <c r="AJ78" s="214"/>
+      <c r="AK78" s="214"/>
+    </row>
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>373</v>
       </c>
@@ -11650,40 +11650,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="22"/>
-    <col min="11" max="11" width="10.36328125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.08984375" style="22"/>
-    <col min="15" max="15" width="12.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.08984375" style="22"/>
-    <col min="19" max="19" width="10.36328125" style="22" customWidth="1"/>
-    <col min="20" max="22" width="9.08984375" style="22"/>
-    <col min="23" max="23" width="10.7265625" style="22" customWidth="1"/>
-    <col min="24" max="16384" width="9.08984375" style="22"/>
+    <col min="1" max="1" width="33.140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="22"/>
+    <col min="11" max="11" width="10.42578125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="22"/>
+    <col min="15" max="15" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="22"/>
+    <col min="19" max="19" width="10.42578125" style="22" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="22"/>
+    <col min="23" max="23" width="10.7109375" style="22" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:23" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31" t="s">
         <v>302</v>
@@ -11731,7 +11731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>137</v>
       </c>
@@ -11748,7 +11748,7 @@
       <c r="H5" s="39"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>139</v>
       </c>
@@ -11773,7 +11773,7 @@
       <c r="T6" s="47"/>
       <c r="V6" s="47"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>142</v>
       </c>
@@ -11810,7 +11810,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="55"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>143</v>
       </c>
@@ -11847,7 +11847,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="55"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>144</v>
       </c>
@@ -11884,7 +11884,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="55"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>145</v>
       </c>
@@ -11917,7 +11917,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>146</v>
       </c>
@@ -11958,7 +11958,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="55"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>147</v>
       </c>
@@ -11995,7 +11995,7 @@
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>148</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>149</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>150</v>
       </c>
@@ -12091,7 +12091,7 @@
       <c r="V15" s="65"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>151</v>
       </c>
@@ -12125,7 +12125,7 @@
       <c r="V16" s="65"/>
       <c r="W16" s="61"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>152</v>
       </c>
@@ -12163,7 +12163,7 @@
       <c r="V17" s="65"/>
       <c r="W17" s="61"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>153</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="V18" s="65"/>
       <c r="W18" s="61"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>154</v>
       </c>
@@ -12231,7 +12231,7 @@
       <c r="M19" s="65"/>
       <c r="N19" s="61"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>303</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="O20" s="55"/>
       <c r="W20" s="61"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>408</v>
       </c>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>155</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>156</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>157</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="70" t="s">
         <v>409</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0.93404711473172097</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
         <v>158</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
         <v>159</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
         <v>160</v>
       </c>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="J28" s="73"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
         <v>161</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="71" t="s">
         <v>162</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>163</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="J31" s="73"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
         <v>164</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>0.90299302022950434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
         <v>165</v>
       </c>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="J33" s="73"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
         <v>166</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>0.92867915675168411</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="71" t="s">
         <v>167</v>
       </c>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="J35" s="73"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="71" t="s">
         <v>168</v>
       </c>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="J36" s="73"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="71" t="s">
         <v>169</v>
       </c>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="J37" s="73"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="71" t="s">
         <v>170</v>
       </c>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="J38" s="73"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="71" t="s">
         <v>171</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="J39" s="73"/>
       <c r="K39" s="73"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="71" t="s">
         <v>172</v>
       </c>
@@ -12851,7 +12851,7 @@
       <c r="J40" s="73"/>
       <c r="K40" s="73"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="71" t="s">
         <v>173</v>
       </c>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="K41" s="73"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="70" t="s">
         <v>174</v>
       </c>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="K42" s="73"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
         <v>175</v>
       </c>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="K43" s="73"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="71" t="s">
         <v>176</v>
       </c>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="K44" s="73"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>177</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>0.93361506882395562</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="71" t="s">
         <v>178</v>
       </c>
@@ -13030,7 +13030,7 @@
       </c>
       <c r="K46" s="73"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>410</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
         <v>179</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>180</v>
       </c>
@@ -13118,7 +13118,7 @@
       </c>
       <c r="J49" s="73"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>181</v>
       </c>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="J50" s="73"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>182</v>
       </c>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="J51" s="73"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>183</v>
       </c>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="J52" s="73"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>184</v>
       </c>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="J53" s="73"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>185</v>
       </c>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="J54" s="73"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>186</v>
       </c>
@@ -13298,7 +13298,7 @@
       </c>
       <c r="J55" s="73"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
         <v>187</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>0.92157077225989936</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>188</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>0.92932939503336609</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="41" t="s">
         <v>189</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="48" t="s">
         <v>191</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="67" t="s">
         <v>194</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>195</v>
       </c>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>196</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>0.84548104956268222</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="71" t="s">
         <v>197</v>
       </c>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="I63" s="54"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="41" t="s">
         <v>190</v>
       </c>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="K64" s="47"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="67" t="s">
         <v>198</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="68" t="s">
         <v>200</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="I66" s="94"/>
       <c r="K66" s="95"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="68" t="s">
         <v>201</v>
       </c>
@@ -13620,7 +13620,7 @@
       </c>
       <c r="K67" s="95"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="68" t="s">
         <v>202</v>
       </c>
@@ -13648,7 +13648,7 @@
       </c>
       <c r="K68" s="95"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="68" t="s">
         <v>203</v>
       </c>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="68" t="s">
         <v>204</v>
       </c>
@@ -13705,7 +13705,7 @@
       <c r="K70" s="95"/>
       <c r="M70" s="73"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="71" t="s">
         <v>205</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="K71" s="95"/>
       <c r="L71" s="95"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="70" t="s">
         <v>206</v>
       </c>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>207</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>0.94242199100000001</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>208</v>
       </c>
@@ -13817,7 +13817,7 @@
       </c>
       <c r="K74" s="97"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>411</v>
       </c>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="K75" s="97"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>209</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>0.93173565722585328</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
         <v>210</v>
       </c>
@@ -13901,7 +13901,7 @@
       <c r="J77" s="55"/>
       <c r="K77" s="98"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="s">
         <v>211</v>
       </c>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="K78" s="97"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="71" t="s">
         <v>212</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>0.93680161201685286</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="71" t="s">
         <v>213</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>0.93292760238366934</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="71" t="s">
         <v>214</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="71" t="s">
         <v>412</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>0.93359512366662756</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="99" t="s">
         <v>215</v>
       </c>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="I83" s="102"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="103" t="s">
         <v>216</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="103" t="s">
         <v>217</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="103" t="s">
         <v>218</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="106" t="s">
         <v>219</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="107" t="s">
         <v>220</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="73" t="s">
         <v>221</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
         <v>222</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="73" t="s">
         <v>223</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="118" t="s">
         <v>413</v>
       </c>
@@ -14302,7 +14302,7 @@
       <c r="M92" s="121"/>
       <c r="N92" s="122"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="123" t="s">
         <v>414</v>
       </c>
@@ -14328,12 +14328,12 @@
       <c r="M93" s="125"/>
       <c r="N93" s="126"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="127"/>
       <c r="B94" s="128"/>
       <c r="N94" s="129"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="127" t="s">
         <v>224</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="M95" s="73"/>
       <c r="N95" s="129"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="130" t="s">
         <v>225</v>
       </c>
@@ -14366,7 +14366,7 @@
       <c r="M96" s="133"/>
       <c r="N96" s="134"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="135" t="s">
         <v>226</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="136" t="s">
         <v>233</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="137" t="s">
         <v>234</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="123" t="s">
         <v>235</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="127" t="s">
         <v>236</v>
       </c>
@@ -14586,13 +14586,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="127"/>
       <c r="B102" s="128"/>
       <c r="F102" s="73"/>
       <c r="G102" s="129"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="127" t="s">
         <v>237</v>
       </c>
@@ -14601,7 +14601,7 @@
       <c r="F103" s="73"/>
       <c r="G103" s="129"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="127" t="s">
         <v>238</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="130" t="s">
         <v>233</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
         <v>242</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
         <v>243</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="118" t="s">
         <v>244</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="127" t="s">
         <v>245</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="127" t="s">
         <v>246</v>
       </c>
@@ -14760,17 +14760,17 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="127"/>
       <c r="B111" s="146"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="130" t="s">
         <v>247</v>
       </c>
       <c r="B112" s="147"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
         <v>248</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="148" t="s">
         <v>249</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="73" t="s">
         <v>250</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
         <v>251</v>
       </c>
@@ -14809,7 +14809,7 @@
       <c r="R116" s="151"/>
       <c r="V116" s="151"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
         <v>252</v>
       </c>
@@ -14822,7 +14822,7 @@
       <c r="R117" s="154"/>
       <c r="V117" s="154"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B118" s="155"/>
       <c r="C118" s="156"/>
       <c r="D118" s="157"/>
@@ -14842,7 +14842,7 @@
       <c r="W118" s="158"/>
       <c r="X118" s="157"/>
     </row>
-    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="73" t="s">
         <v>253</v>
       </c>
@@ -14865,7 +14865,7 @@
       <c r="W119" s="160"/>
       <c r="X119" s="161"/>
     </row>
-    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="162"/>
       <c r="C120" s="163"/>
       <c r="D120" s="164"/>
@@ -14885,7 +14885,7 @@
       <c r="W120" s="163"/>
       <c r="X120" s="164"/>
     </row>
-    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="162">
         <v>10</v>
       </c>
@@ -14917,7 +14917,7 @@
       <c r="W121" s="163"/>
       <c r="X121" s="164"/>
     </row>
-    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="162">
         <v>10</v>
       </c>
@@ -14949,7 +14949,7 @@
       <c r="W122" s="163"/>
       <c r="X122" s="164"/>
     </row>
-    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="162" t="s">
         <v>254</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="162">
         <v>1990</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="162">
         <v>1995</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B126" s="168">
         <v>2000</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B127" s="22">
         <v>2005</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="148"/>
       <c r="B128" s="22">
         <v>2010</v>
@@ -15286,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="171"/>
       <c r="B129" s="172">
         <v>2015</v>
@@ -15344,7 +15344,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="175"/>
       <c r="B130" s="176">
         <v>2017</v>
@@ -15402,7 +15402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="175"/>
       <c r="B131" s="179">
         <v>2020</v>
@@ -15418,7 +15418,7 @@
       <c r="G131" s="174"/>
       <c r="H131" s="174"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="175"/>
       <c r="B132" s="179"/>
       <c r="C132" s="179"/>
@@ -15428,7 +15428,7 @@
       <c r="G132" s="174"/>
       <c r="H132" s="174"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="175" t="s">
         <v>262</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="G133" s="174"/>
       <c r="H133" s="174"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="181" t="s">
         <v>263</v>
       </c>
@@ -15462,7 +15462,7 @@
       <c r="G134" s="174"/>
       <c r="H134" s="174"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="174" t="s">
         <v>269</v>
       </c>
@@ -15484,7 +15484,7 @@
       <c r="G135" s="174"/>
       <c r="H135" s="174"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="171" t="s">
         <v>270</v>
       </c>
@@ -15506,7 +15506,7 @@
       <c r="G136" s="174"/>
       <c r="H136" s="174"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="175" t="s">
         <v>271</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="G137" s="174"/>
       <c r="H137" s="174"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="175" t="s">
         <v>272</v>
       </c>
@@ -15550,7 +15550,7 @@
       <c r="G138" s="174"/>
       <c r="H138" s="174"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="175" t="s">
         <v>273</v>
       </c>
@@ -15572,7 +15572,7 @@
       <c r="G139" s="174"/>
       <c r="H139" s="174"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="175"/>
       <c r="B140" s="163"/>
       <c r="C140" s="179"/>
@@ -15582,7 +15582,7 @@
       <c r="G140" s="174"/>
       <c r="H140" s="174"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="181" t="s">
         <v>274</v>
       </c>
@@ -15604,7 +15604,7 @@
       <c r="G141" s="174"/>
       <c r="H141" s="174"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="174" t="s">
         <v>280</v>
       </c>
@@ -15626,7 +15626,7 @@
       <c r="G142" s="174"/>
       <c r="H142" s="174"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="171" t="s">
         <v>281</v>
       </c>
@@ -15649,7 +15649,7 @@
       <c r="H143" s="172"/>
       <c r="I143" s="190"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="175" t="s">
         <v>282</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="H144" s="176"/>
       <c r="I144" s="129"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="175" t="s">
         <v>283</v>
       </c>
@@ -15695,7 +15695,7 @@
       <c r="H145" s="176"/>
       <c r="I145" s="129"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="175" t="s">
         <v>284</v>
       </c>
@@ -15718,7 +15718,7 @@
       <c r="H146" s="176"/>
       <c r="I146" s="129"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="175"/>
       <c r="B147" s="179"/>
       <c r="C147" s="177"/>
@@ -15729,7 +15729,7 @@
       <c r="H147" s="176"/>
       <c r="I147" s="129"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="175" t="s">
         <v>285</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="175" t="s">
         <v>294</v>
       </c>
@@ -15787,7 +15787,7 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="175" t="s">
         <v>295</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="195" t="s">
         <v>296</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="s">
         <v>297</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>298</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
         <v>299</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
         <v>300</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="22" t="s">
         <v>301</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="22" t="s">
         <v>415</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="22" t="s">
         <v>416</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>1609340</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
         <v>417</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>1609.34</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>418</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>1.60934</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
         <v>419</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="22" t="s">
         <v>420</v>
       </c>
@@ -16140,18 +16140,18 @@
   </sheetPr>
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="35" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>407</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>347</v>
       </c>
@@ -16399,8 +16399,8 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="209" t="s">
         <v>323</v>
       </c>
       <c r="B3" s="5">
@@ -16540,7 +16540,7 @@
         <v>21922172488039.996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="202" t="s">
         <v>324</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>1036999999999999.9</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>341</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -17143,8 +17143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="210" t="s">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="209" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="5">
@@ -17284,7 +17284,7 @@
         <v>19737962860000</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>5023036000000</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>5825000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -17707,7 +17707,7 @@
         <v>3989233000000</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>5359000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>5670000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>348</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>3142000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -18237,8 +18237,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="210" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="209" t="s">
         <v>330</v>
       </c>
       <c r="B17" s="5">
@@ -18378,7 +18378,7 @@
         <v>14321544386446.23</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>368</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>5676202000000</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>369</v>
       </c>
@@ -18660,8 +18660,8 @@
         <v>6287000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="212" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="211" t="s">
         <v>370</v>
       </c>
       <c r="B20" s="6">
@@ -18801,8 +18801,8 @@
         <v>24147962520</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="210" t="s">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="209" t="s">
         <v>371</v>
       </c>
       <c r="B21" s="5">
@@ -18942,7 +18942,7 @@
         <v>14973166799680.666</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>367</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>134509803921.56865</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
     </row>
   </sheetData>
@@ -19098,18 +19098,18 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="2" customWidth="1"/>
     <col min="2" max="35" width="10" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9.08984375" style="2"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>406</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>353</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>323</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>21922172.488039996</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>324</v>
       </c>
@@ -19639,7 +19639,7 @@
         <v>36621343.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>359</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>342</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>343</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>344</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>325</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>19737962.859999999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>119596.09523809524</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>138690.47619047618</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
@@ -20665,7 +20665,7 @@
         <v>94981.738095238092</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>127595.23809523809</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -20947,7 +20947,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>354</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>3142000</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>345</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>330</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>14321544.386446232</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>368</v>
       </c>
@@ -21477,7 +21477,7 @@
         <v>5676202</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>369</v>
       </c>
@@ -21618,148 +21618,148 @@
         <v>6287000</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="214">
+      <c r="B20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="C20" s="214">
+      <c r="C20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="D20" s="214">
+      <c r="D20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="E20" s="214">
+      <c r="E20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="F20" s="214">
+      <c r="F20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="G20" s="214">
+      <c r="G20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="H20" s="214">
+      <c r="H20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="I20" s="214">
+      <c r="I20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="J20" s="214">
+      <c r="J20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="K20" s="214">
+      <c r="K20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="L20" s="214">
+      <c r="L20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="M20" s="214">
+      <c r="M20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="N20" s="214">
+      <c r="N20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="O20" s="214">
+      <c r="O20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="P20" s="214">
+      <c r="P20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="Q20" s="214">
+      <c r="Q20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="R20" s="214">
+      <c r="R20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="S20" s="214">
+      <c r="S20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="T20" s="214">
+      <c r="T20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="U20" s="214">
+      <c r="U20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="V20" s="214">
+      <c r="V20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="W20" s="214">
+      <c r="W20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="X20" s="214">
+      <c r="X20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="Y20" s="214">
+      <c r="Y20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="Z20" s="214">
+      <c r="Z20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AA20" s="214">
+      <c r="AA20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AB20" s="214">
+      <c r="AB20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AC20" s="214">
+      <c r="AC20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AD20" s="214">
+      <c r="AD20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AE20" s="214">
+      <c r="AE20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AF20" s="214">
+      <c r="AF20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AG20" s="214">
+      <c r="AG20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AH20" s="214">
+      <c r="AH20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
-      <c r="AI20" s="214">
+      <c r="AI20" s="213">
         <f>'GREET1 Fuel_Specs'!$D$36*About!$A$70</f>
         <v>24147.962520000001</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>371</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>14973166.799680665</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>367</v>
       </c>
@@ -22054,16 +22054,16 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="35" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>405</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>310</v>
       </c>
@@ -22277,7 +22277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>50845.424910505382</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>58963.264468678673</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>313</v>
       </c>
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>57394.284899125851</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>402</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>370</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>367</v>
       </c>
@@ -23354,27 +23354,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>299</v>
       </c>
-      <c r="B2">
-        <f>10^12*About!$A$81</f>
-        <v>1055060000000000</v>
+      <c r="B2" s="207">
+        <f>About!$A$81</f>
+        <v>947800000</v>
       </c>
     </row>
   </sheetData>
